--- a/HHMemories/script/doc/HHM회의록.xlsx
+++ b/HHMemories/script/doc/HHM회의록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/byeol/Desktop/Practice/HHMemories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8E4F9-12B2-1744-8DE3-AFF3C5578460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD4AD2-FC2A-6B4C-AB5F-B3AFAFF0A63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3860" windowWidth="22420" windowHeight="15980" xr2:uid="{27524D9C-01A4-D44D-A3B0-45CEF136E619}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{27524D9C-01A4-D44D-A3B0-45CEF136E619}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>퍼블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,69 @@
   </si>
   <si>
     <t>회원가입 페이지 우선순위로 작업요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 
+생년월일 캘린더필요, 휴대폰중복확인 버튼 삭제, 주소 검색 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 상세페이지 작업 필요 및 오른쪽상단 프로필 아이콘 마우스 hover시 상세메뉴뜨도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입완료 페이지 팝업으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 초안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 폴서 선택 시 상세화면, 미리보기 화면 작업 
+회원가입 -&gt; 생년월일 입력 셀렉트박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 레이아웃작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입, ID찾기&lt; 비밀번호찾기 화면 기능 구현완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 기능 전체 완료 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 빈값입력 후 버튼 선택 시 알럿창, 잘못된 정보 입력 시 '실패'페이지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 초안 + 폴더 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 부수적인 내용 -&gt; 퍼블전달 
+2. 일러스트 , 기획서 수정 등 다음회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입, 모든 화면 진행 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일 셀렉트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 팝업, 유효성검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,13 +547,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -503,9 +563,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -515,9 +572,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -527,26 +581,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,245 +922,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49173DA2-6C0E-244E-A0DF-24BFA266D79E}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="27.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="1"/>
+    <col min="2" max="2" width="23.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="27.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="15"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="14"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="80">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>44703</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="48">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>44719</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="48">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>44725</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="64">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="48">
+      <c r="A8" s="17">
+        <v>44748</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
